--- a/Jupyter/simulationID/cim_0315_1240/data/FutureBldgs_All.xlsx
+++ b/Jupyter/simulationID/cim_0315_1240/data/FutureBldgs_All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0315_1240/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25890235-EE7F-6D47-94FD-07EB70D7C801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451140E-F0E1-1049-B1BB-A77B64F5CB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34060" yWindow="-2680" windowWidth="32960" windowHeight="18080" xr2:uid="{326F34FF-D256-464B-A443-A7777F4EFD82}"/>
+    <workbookView xWindow="35360" yWindow="-2680" windowWidth="32960" windowHeight="18080" xr2:uid="{326F34FF-D256-464B-A443-A7777F4EFD82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>index</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>215_2</t>
+  </si>
+  <si>
+    <t>complex_17</t>
   </si>
 </sst>
 </file>
@@ -683,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C3CEC-290D-EF42-821E-F4AC0F8C3786}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2092,9 +2095,8 @@
       <c r="U20" t="s">
         <v>40</v>
       </c>
-      <c r="V20" t="str">
-        <f>"complex_"&amp;U20</f>
-        <v>complex_502-0317495</v>
+      <c r="V20" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="W20" t="s">
         <v>64</v>
@@ -2161,9 +2163,8 @@
       <c r="U21" t="s">
         <v>40</v>
       </c>
-      <c r="V21" t="str">
-        <f>"complex_"&amp;U21</f>
-        <v>complex_502-0317495</v>
+      <c r="V21" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="W21" t="s">
         <v>65</v>
